--- a/evm_doc/项目功能变更历史.xlsx
+++ b/evm_doc/项目功能变更历史.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>业务模块</t>
   </si>
@@ -379,6 +379,9 @@
   <si>
     <t>db升级脚本：insert into qr_cfg_func_service(system_id,service_id,function_id) values(100,310206,30004),(200,310206,40002),(300,310206,50002)相关文件</t>
   </si>
+  <si>
+    <t>宽城数据导入；导入流程</t>
+  </si>
 </sst>
 </file>
 
@@ -387,17 +390,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,21 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -460,15 +441,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,16 +454,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,6 +498,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -519,16 +530,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,32 +563,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,7 +597,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,37 +729,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,43 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,85 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,30 +912,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -950,15 +922,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,6 +937,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,278 +984,296 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1395,7 +1385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9591040" y="21945600"/>
-          <a:ext cx="4820920" cy="4866640"/>
+          <a:ext cx="4820920" cy="3876040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,8 +1690,8 @@
   <sheetPr/>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2805,14 +2795,14 @@
       <c r="A121" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B121" s="38"/>
-      <c r="C121" s="39"/>
-    </row>
-    <row r="122" ht="112" spans="1:3">
-      <c r="A122" s="40" t="s">
+      <c r="B121" s="8"/>
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" ht="34" customHeight="1" spans="1:3">
+      <c r="A122" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C122" s="9">
@@ -2820,44 +2810,48 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="40"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="39"/>
+      <c r="A123" s="38">
+        <v>42983</v>
+      </c>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="40"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="39"/>
+      <c r="A124" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" s="8"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="40"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="39"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="40"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="39"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="40"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="39"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="40"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="39"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="9"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="39"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="40"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="39"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2890,7 +2884,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1de1954-e032-4fc1-a4fd-9f15ea86a68a}</x14:id>
+          <x14:id>{733e8537-237e-48f3-afe0-1698189c47b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2904,7 +2898,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34563c32-a3d9-4cb6-ba5a-0f3e0ccd1d83}</x14:id>
+          <x14:id>{a15f9545-5729-46b1-a358-dca267c72276}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2921,7 +2915,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0cafb9a0-79a6-4dd6-b083-b9bfea14c879}</x14:id>
+          <x14:id>{b1597c0a-7524-41af-b0e4-be2488ccb4f7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2938,7 +2932,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0c17ae6e-2164-4f52-9378-083b31d6b680}</x14:id>
+          <x14:id>{0776695c-9a81-43cd-900a-27cce5702581}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2960,7 +2954,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3614cd8d-eb7b-4e06-9431-bf268412ce51}</x14:id>
+          <x14:id>{03006a72-4650-44b2-a918-af0a79a0cacb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2974,7 +2968,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d301831a-21fd-4187-ba55-945a910eefbb}</x14:id>
+          <x14:id>{3d9271e1-5501-4a1f-8bf1-867c19493352}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2988,7 +2982,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a56cc464-50ca-48fc-afe6-33e09aa0ae66}</x14:id>
+          <x14:id>{df4ad382-2a60-4ef6-90d5-968d52afe1f7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3001,7 +2995,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e1de1954-e032-4fc1-a4fd-9f15ea86a68a}">
+          <x14:cfRule type="dataBar" id="{733e8537-237e-48f3-afe0-1698189c47b6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3014,7 +3008,7 @@
           <xm:sqref>C65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{34563c32-a3d9-4cb6-ba5a-0f3e0ccd1d83}">
+          <x14:cfRule type="dataBar" id="{a15f9545-5729-46b1-a358-dca267c72276}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3027,7 +3021,7 @@
           <xm:sqref>C119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0cafb9a0-79a6-4dd6-b083-b9bfea14c879}">
+          <x14:cfRule type="dataBar" id="{b1597c0a-7524-41af-b0e4-be2488ccb4f7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3040,7 +3034,7 @@
           <xm:sqref>C120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0c17ae6e-2164-4f52-9378-083b31d6b680}">
+          <x14:cfRule type="dataBar" id="{0776695c-9a81-43cd-900a-27cce5702581}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3053,7 +3047,7 @@
           <xm:sqref>C122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3614cd8d-eb7b-4e06-9431-bf268412ce51}">
+          <x14:cfRule type="dataBar" id="{03006a72-4650-44b2-a918-af0a79a0cacb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3066,7 +3060,7 @@
           <xm:sqref>C2:C45 C48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d301831a-21fd-4187-ba55-945a910eefbb}">
+          <x14:cfRule type="dataBar" id="{3d9271e1-5501-4a1f-8bf1-867c19493352}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3079,7 +3073,7 @@
           <xm:sqref>C56:C64 C49:C54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a56cc464-50ca-48fc-afe6-33e09aa0ae66}">
+          <x14:cfRule type="dataBar" id="{df4ad382-2a60-4ef6-90d5-968d52afe1f7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/evm_doc/项目功能变更历史.xlsx
+++ b/evm_doc/项目功能变更历史.xlsx
@@ -2884,7 +2884,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{733e8537-237e-48f3-afe0-1698189c47b6}</x14:id>
+          <x14:id>{ba462392-bc9f-4b7d-82ea-30b30fbeb2eb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2898,7 +2898,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a15f9545-5729-46b1-a358-dca267c72276}</x14:id>
+          <x14:id>{37ac8e1d-c336-4cc2-9cf5-845ed53490b9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2915,7 +2915,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b1597c0a-7524-41af-b0e4-be2488ccb4f7}</x14:id>
+          <x14:id>{e1b11c2c-06c1-436d-87bf-ae711c1e6cec}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2932,7 +2932,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0776695c-9a81-43cd-900a-27cce5702581}</x14:id>
+          <x14:id>{c4387f85-73b1-469e-a720-8291486770d9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2954,7 +2954,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03006a72-4650-44b2-a918-af0a79a0cacb}</x14:id>
+          <x14:id>{41ed3d24-4db1-456b-8558-4e2bfa64268b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2968,7 +2968,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3d9271e1-5501-4a1f-8bf1-867c19493352}</x14:id>
+          <x14:id>{9b6849fc-1ab1-4e2b-9fb8-29ebbf1c84c2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2982,7 +2982,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{df4ad382-2a60-4ef6-90d5-968d52afe1f7}</x14:id>
+          <x14:id>{75d1afe4-e4c5-4e5b-bf41-f1cd0f6627f1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2995,7 +2995,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{733e8537-237e-48f3-afe0-1698189c47b6}">
+          <x14:cfRule type="dataBar" id="{ba462392-bc9f-4b7d-82ea-30b30fbeb2eb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3008,7 +3008,7 @@
           <xm:sqref>C65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a15f9545-5729-46b1-a358-dca267c72276}">
+          <x14:cfRule type="dataBar" id="{37ac8e1d-c336-4cc2-9cf5-845ed53490b9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3021,7 +3021,7 @@
           <xm:sqref>C119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b1597c0a-7524-41af-b0e4-be2488ccb4f7}">
+          <x14:cfRule type="dataBar" id="{e1b11c2c-06c1-436d-87bf-ae711c1e6cec}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3034,7 +3034,7 @@
           <xm:sqref>C120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0776695c-9a81-43cd-900a-27cce5702581}">
+          <x14:cfRule type="dataBar" id="{c4387f85-73b1-469e-a720-8291486770d9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3047,7 +3047,7 @@
           <xm:sqref>C122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03006a72-4650-44b2-a918-af0a79a0cacb}">
+          <x14:cfRule type="dataBar" id="{41ed3d24-4db1-456b-8558-4e2bfa64268b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3060,7 +3060,7 @@
           <xm:sqref>C2:C45 C48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3d9271e1-5501-4a1f-8bf1-867c19493352}">
+          <x14:cfRule type="dataBar" id="{9b6849fc-1ab1-4e2b-9fb8-29ebbf1c84c2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3073,7 +3073,7 @@
           <xm:sqref>C56:C64 C49:C54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{df4ad382-2a60-4ef6-90d5-968d52afe1f7}">
+          <x14:cfRule type="dataBar" id="{75d1afe4-e4c5-4e5b-bf41-f1cd0f6627f1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
